--- a/TFTP/etc/test-cases-IT2-to-4.xlsx
+++ b/TFTP/etc/test-cases-IT2-to-4.xlsx
@@ -476,12 +476,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -496,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -505,6 +517,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -789,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C14:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,16 +981,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -986,16 +1004,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1106,16 +1124,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1129,16 +1147,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1244,16 +1262,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>127</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1304,29 +1322,31 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="D30" s="5"/>
       <c r="F30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="D31" s="5"/>
       <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
@@ -1410,55 +1430,89 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="D43" s="5"/>
       <c r="F43" s="1" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="D45" s="5"/>
       <c r="F45" s="1" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="D47" s="5"/>
       <c r="F47" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="5"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
